--- a/Output.xlsx
+++ b/Output.xlsx
@@ -807,46 +807,46 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>60.2</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="U2" t="n">
-        <v>84.3</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="V2" t="n">
-        <v>75776</v>
+        <v>1904793.6</v>
       </c>
       <c r="W2" t="n">
-        <v>11878.4</v>
+        <v>232857.6</v>
       </c>
       <c r="X2" t="n">
-        <v>997478891520</v>
+        <v>1033998503936</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5126610028720998</v>
+        <v>0.4948185889206701</v>
       </c>
       <c r="Z2" t="n">
-        <v>159.4</v>
+        <v>18031.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>632.7</v>
+        <v>6626.6</v>
       </c>
       <c r="AB2" t="n">
         <v>4294967296</v>
       </c>
       <c r="AC2" t="n">
-        <v>1067024384</v>
+        <v>669446144</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.689</v>
+        <v>5.392</v>
       </c>
       <c r="AE2" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="AK2" t="n">
-        <v>1697537118</v>
+        <v>1697878517</v>
       </c>
       <c r="AL2" t="n">
         <v>3</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -916,16 +916,16 @@
         <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="BB2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2" t="n">
         <v>10</v>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI2"/>
+  <dimension ref="A1:CA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,11 +727,101 @@
           <t>驱动项风险等级为9的项目个数</t>
         </is>
       </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>自启动项数量</t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t>进程总数</t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t>当前已建立的TCP连接数量</t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>距离上次修改密码时间</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t>当前用户是否是管理员</t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t>3389是否开启</t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t>22是否开启</t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t>5900是否开启</t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t>5901是否开启</t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t>23是否开启</t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t>3306是否开启</t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t>3309是否开启</t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t>网络接入方式</t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t>Windows防火墙是否启用</t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t>安装软件数量</t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t>远程桌面是否启用</t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t>远程SSH连接数量</t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t>桌面图标快捷方式是否正常</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>专业版</t>
+          <t>家庭中文版</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -789,12 +879,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -807,46 +897,34 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>85.40000000000001</v>
+        <v>47</v>
       </c>
       <c r="U2" t="n">
-        <v>67.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="V2" t="n">
-        <v>1904793.6</v>
+        <v>142950.4</v>
       </c>
       <c r="W2" t="n">
-        <v>232857.6</v>
+        <v>11059.2</v>
       </c>
       <c r="X2" t="n">
-        <v>1033998503936</v>
+        <v>1882992545792</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.4948185889206701</v>
+        <v>0.1650987042839395</v>
       </c>
       <c r="Z2" t="n">
-        <v>18031.6</v>
+        <v>1266.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>6626.6</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>4294967296</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>669446144</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>5.392</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>50</v>
+        <v>4916.7</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
@@ -868,10 +946,10 @@
         </is>
       </c>
       <c r="AK2" t="n">
-        <v>1697878517</v>
+        <v>1698138234</v>
       </c>
       <c r="AL2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
         <v>1378</v>
@@ -941,6 +1019,62 @@
       </c>
       <c r="BI2" t="n">
         <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>273</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>108</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>6650980</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>有线网络</t>
+        </is>
+      </c>
+      <c r="BW2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>137</v>
+      </c>
+      <c r="BY2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
